--- a/maxim/reverseDelete.xlsx
+++ b/maxim/reverseDelete.xlsx
@@ -354,7 +354,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -376,10 +376,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.009729877540043433</v>
+        <v>1.295999999997299E-06</v>
       </c>
       <c r="C2">
-        <v>0.008630503926958365</v>
+        <v>7.560000000039757E-07</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -387,10 +387,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.009789399539723123</v>
+        <v>1.663999999995669E-06</v>
       </c>
       <c r="C3">
-        <v>0.008386179980109727</v>
+        <v>2.287000000001926E-06</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -398,10 +398,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.009391175064386111</v>
+        <v>2.627999999996189E-06</v>
       </c>
       <c r="C4">
-        <v>0.008873629102519919</v>
+        <v>4.018000000002852E-06</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -409,10 +409,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.008981181074071819</v>
+        <v>2.742999999997275E-06</v>
       </c>
       <c r="C5">
-        <v>0.00798646344078912</v>
+        <v>6.878999999997415E-06</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -420,10 +420,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.008075212029849786</v>
+        <v>4.16000000000527E-06</v>
       </c>
       <c r="C6">
-        <v>0.008184763029509904</v>
+        <v>1.206299999999327E-05</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -431,10 +431,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.0102523370222612</v>
+        <v>5.971999999999644E-06</v>
       </c>
       <c r="C7">
-        <v>0.007876076842799342</v>
+        <v>1.975200000000399E-05</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -442,10 +442,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.009941166274401616</v>
+        <v>6.011999999997464E-06</v>
       </c>
       <c r="C8">
-        <v>0.006411763599940711</v>
+        <v>2.369199999999849E-05</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -453,10 +453,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.008278430026510493</v>
+        <v>7.058000000009779E-06</v>
       </c>
       <c r="C9">
-        <v>0.00667261870011039</v>
+        <v>3.054599999999019E-05</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -464,10 +464,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.009790583046115181</v>
+        <v>8.620999999994217E-06</v>
       </c>
       <c r="C10">
-        <v>0.006491560838660415</v>
+        <v>4.062500000000635E-05</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -475,10 +475,10 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.008951593967194258</v>
+        <v>1.017299999999222E-05</v>
       </c>
       <c r="C11">
-        <v>0.006565774755274992</v>
+        <v>5.018199999999862E-05</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -486,10 +486,10 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.009526047630915576</v>
+        <v>1.296800000000542E-05</v>
       </c>
       <c r="C12">
-        <v>0.007176353061009972</v>
+        <v>7.456399999999919E-05</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -497,10 +497,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.009040112928910698</v>
+        <v>1.658400000000171E-05</v>
       </c>
       <c r="C13">
-        <v>0.006460306861183862</v>
+        <v>9.169400000000327E-05</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -508,10 +508,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.00905885189137561</v>
+        <v>1.807499999999962E-05</v>
       </c>
       <c r="C14">
-        <v>0.008330462841277432</v>
+        <v>0.0001176069999999996</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -519,10 +519,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.008715519309043891</v>
+        <v>2.163099999999973E-05</v>
       </c>
       <c r="C15">
-        <v>0.006916934251785277</v>
+        <v>0.0001525259999999928</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -530,10 +530,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.007874341011047368</v>
+        <v>2.940200000000282E-05</v>
       </c>
       <c r="C16">
-        <v>0.007810101509094242</v>
+        <v>0.0002139779999999991</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -541,10 +541,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.009152390032398462</v>
+        <v>2.50509999999915E-05</v>
       </c>
       <c r="C17">
-        <v>0.008242229539520893</v>
+        <v>0.0002024269999999984</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -552,10 +552,10 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.008710218358922895</v>
+        <v>2.966899999999439E-05</v>
       </c>
       <c r="C18">
-        <v>0.008926172609682445</v>
+        <v>0.0002502879999999896</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -563,10 +563,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.008373433824569468</v>
+        <v>3.229199999997378E-05</v>
       </c>
       <c r="C19">
-        <v>0.008255942662556977</v>
+        <v>0.000287558999999995</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -574,10 +574,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.009939995933981502</v>
+        <v>3.828599999997407E-05</v>
       </c>
       <c r="C20">
-        <v>0.008762011808507579</v>
+        <v>0.0003576250000000125</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -585,10 +585,10 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.009271044532457993</v>
+        <v>4.586900000000948E-05</v>
       </c>
       <c r="C21">
-        <v>0.008063613375027978</v>
+        <v>0.0004528580000000138</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -596,10 +596,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.009872827927271533</v>
+        <v>5.314100000000321E-05</v>
       </c>
       <c r="C22">
-        <v>0.008568166693051665</v>
+        <v>0.0005513739999999912</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -607,10 +607,10 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.009613175745363599</v>
+        <v>5.214800000000297E-05</v>
       </c>
       <c r="C23">
-        <v>0.009783040152655716</v>
+        <v>0.0005526330000000157</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -618,10 +618,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.009151379267374679</v>
+        <v>5.457499999999893E-05</v>
       </c>
       <c r="C24">
-        <v>0.008107270134819881</v>
+        <v>0.000608219000000001</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -629,10 +629,10 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.009518923849429732</v>
+        <v>5.873600000001922E-05</v>
       </c>
       <c r="C25">
-        <v>0.009270523179252203</v>
+        <v>0.0006848009999999993</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -640,10 +640,10 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.008771334676181582</v>
+        <v>6.120500000001528E-05</v>
       </c>
       <c r="C26">
-        <v>0.01033265730913949</v>
+        <v>0.0007696760000000236</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -651,10 +651,10 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.008914276827936593</v>
+        <v>6.736599999999982E-05</v>
       </c>
       <c r="C27">
-        <v>0.009639934871507733</v>
+        <v>0.0008752730000000097</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -662,10 +662,10 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.009336176088878097</v>
+        <v>7.30369999999958E-05</v>
       </c>
       <c r="C28">
-        <v>0.01003046376364573</v>
+        <v>0.0009871199999999859</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -673,10 +673,10 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.009210162692599831</v>
+        <v>7.876100000001607E-05</v>
       </c>
       <c r="C29">
-        <v>0.01108019087049697</v>
+        <v>0.001125942999999991</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -684,10 +684,10 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.009038538402981234</v>
+        <v>8.334499999999689E-05</v>
       </c>
       <c r="C30">
-        <v>0.01079259271974918</v>
+        <v>0.001232069999999972</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -695,10 +695,10 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.008975370724995931</v>
+        <v>8.900500000001977E-05</v>
       </c>
       <c r="C31">
-        <v>0.0113365547997611</v>
+        <v>0.001382814000000048</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -706,10 +706,10 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.01021976201039441</v>
+        <v>9.984699999992407E-05</v>
       </c>
       <c r="C32">
-        <v>0.01028990205728784</v>
+        <v>0.00156982799999998</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -717,10 +717,10 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.008037895626491974</v>
+        <v>0.0001022580000000062</v>
       </c>
       <c r="C33">
-        <v>0.01073969911645961</v>
+        <v>0.001700673000000021</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -728,10 +728,10 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.008636503036205591</v>
+        <v>0.0001097010000000243</v>
       </c>
       <c r="C34">
-        <v>0.01033765169290397</v>
+        <v>0.00191780699999998</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -739,10 +739,10 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0.009768407289371943</v>
+        <v>0.0001210579999999339</v>
       </c>
       <c r="C35">
-        <v>0.01226328029189</v>
+        <v>0.002129168999999971</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -750,10 +750,10 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.009599923094113672</v>
+        <v>0.0001251669999999994</v>
       </c>
       <c r="C36">
-        <v>0.01139972507953645</v>
+        <v>0.002300017999999966</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -761,10 +761,10 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0.009096107811763376</v>
+        <v>0.0001337489999999964</v>
       </c>
       <c r="C37">
-        <v>0.01067688876184925</v>
+        <v>0.002549197000000029</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -772,10 +772,10 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.008368687513397961</v>
+        <v>0.0001424209999999615</v>
       </c>
       <c r="C38">
-        <v>0.01322976903217596</v>
+        <v>0.00286272299999994</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -783,10 +783,10 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.008757940205660746</v>
+        <v>0.0001453279999999069</v>
       </c>
       <c r="C39">
-        <v>0.01316054517572578</v>
+        <v>0.003050378000000027</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -794,10 +794,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0.009959730080195845</v>
+        <v>0.0001599939999999833</v>
       </c>
       <c r="C40">
-        <v>0.01287625772612437</v>
+        <v>0.003487486999999998</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -805,10 +805,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.009150618314743049</v>
+        <v>0.0001644529999998845</v>
       </c>
       <c r="C41">
-        <v>0.01465258683477131</v>
+        <v>0.003646955000000087</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -816,10 +816,10 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.009095153601273252</v>
+        <v>0.000170911000000018</v>
       </c>
       <c r="C42">
-        <v>0.01565677497697914</v>
+        <v>0.003982938999999952</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -827,10 +827,10 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.009682993013031637</v>
+        <v>0.0001832809999999441</v>
       </c>
       <c r="C43">
-        <v>0.01806367368114239</v>
+        <v>0.004341379999999955</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -838,10 +838,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.009297004400515098</v>
+        <v>0.0001896710000001356</v>
       </c>
       <c r="C44">
-        <v>0.02096470945021686</v>
+        <v>0.004736550000000044</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -849,10 +849,10 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.009381924284265404</v>
+        <v>0.0001971969999999779</v>
       </c>
       <c r="C45">
-        <v>0.02051454503485498</v>
+        <v>0.005172753000000014</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -860,10 +860,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.008855193121391434</v>
+        <v>0.0002072249999999798</v>
       </c>
       <c r="C46">
-        <v>0.02190875254179302</v>
+        <v>0.005547251999999947</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -871,10 +871,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.008296701541313765</v>
+        <v>0.0002223439999999499</v>
       </c>
       <c r="C47">
-        <v>0.02314790028792161</v>
+        <v>0.006006278000000194</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -882,10 +882,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0.009655949534202115</v>
+        <v>0.000221768999999945</v>
       </c>
       <c r="C48">
-        <v>0.02386342943931113</v>
+        <v>0.006529053999999697</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -893,10 +893,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.008341990576850049</v>
+        <v>0.0002437179999999728</v>
       </c>
       <c r="C49">
-        <v>0.02622515890333387</v>
+        <v>0.007042955000000148</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -904,10 +904,10 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0.00925320409378916</v>
+        <v>0.0002404630000002683</v>
       </c>
       <c r="C50">
-        <v>0.02815479962330942</v>
+        <v>0.007477046999999892</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -915,10 +915,10 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.009263936678568532</v>
+        <v>0.0002589680000001948</v>
       </c>
       <c r="C51">
-        <v>0.02873364377904819</v>
+        <v>0.008106476000000135</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -926,10 +926,10 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0.01023858949249867</v>
+        <v>0.0002696729999998837</v>
       </c>
       <c r="C52">
-        <v>0.03193040735581339</v>
+        <v>0.008689790000000136</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -937,10 +937,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0.009012825544490375</v>
+        <v>0.0002763920000000297</v>
       </c>
       <c r="C53">
-        <v>0.03918273393497908</v>
+        <v>0.00934267000000002</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -948,10 +948,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0.009066402703000796</v>
+        <v>0.0002957590000000821</v>
       </c>
       <c r="C54">
-        <v>0.03878582653246423</v>
+        <v>0.01000575400000002</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -959,10 +959,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.009033288377704054</v>
+        <v>0.0002987429999999591</v>
       </c>
       <c r="C55">
-        <v>0.04453173044956086</v>
+        <v>0.01078101399999987</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -970,10 +970,10 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0.008346223831176763</v>
+        <v>0.0003271830000003462</v>
       </c>
       <c r="C56">
-        <v>0.04713351104570468</v>
+        <v>0.01150595000000017</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -981,10 +981,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0.00850592759939341</v>
+        <v>0.0003297950000001038</v>
       </c>
       <c r="C57">
-        <v>0.04798353727047255</v>
+        <v>0.01226556600000023</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -992,10 +992,10 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0.008513968331473221</v>
+        <v>0.0003545599999997507</v>
       </c>
       <c r="C58">
-        <v>0.05265523170938292</v>
+        <v>0.01305167699999991</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1003,10 +1003,10 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0.008011660575866702</v>
+        <v>0.0003571230000000014</v>
       </c>
       <c r="C59">
-        <v>0.05576560020446772</v>
+        <v>0.01392564100000023</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1014,10 +1014,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>0.00892178058624268</v>
+        <v>0.0003747590000002532</v>
       </c>
       <c r="C60">
-        <v>0.05854638576507563</v>
+        <v>0.0148262849999999</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1025,10 +1025,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.01002214534862621</v>
+        <v>0.0004003150000004751</v>
       </c>
       <c r="C61">
-        <v>0.06341184281014103</v>
+        <v>0.01580874699999974</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1036,10 +1036,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.009538762465767243</v>
+        <v>0.00040236500000006</v>
       </c>
       <c r="C62">
-        <v>0.06542585518049152</v>
+        <v>0.01675009800000012</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1047,10 +1047,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0.0100324569864476</v>
+        <v>0.0004223939999995707</v>
       </c>
       <c r="C63">
-        <v>0.06713206818763241</v>
+        <v>0.01781881600000048</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1058,10 +1058,10 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>0.009488569606434225</v>
+        <v>0.0004318620000002227</v>
       </c>
       <c r="C64">
-        <v>0.07338379079645324</v>
+        <v>0.01893724499999976</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1069,10 +1069,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0.01017795496208724</v>
+        <v>0.0004637769999997943</v>
       </c>
       <c r="C65">
-        <v>0.07460610700208081</v>
+        <v>0.02008167500000056</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1080,10 +1080,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>0.009733581542968758</v>
+        <v>0.0004806000000002797</v>
       </c>
       <c r="C66">
-        <v>0.08277367591857905</v>
+        <v>0.02124506599999925</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1091,10 +1091,10 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>0.008818292617797862</v>
+        <v>0.000492516999999566</v>
       </c>
       <c r="C67">
-        <v>0.08444540500640872</v>
+        <v>0.02249953399999939</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1102,10 +1102,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>0.01054097281561958</v>
+        <v>0.0005063200000002155</v>
       </c>
       <c r="C68">
-        <v>0.09151705106099442</v>
+        <v>0.02380771999999936</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1113,10 +1113,10 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>0.01053875287373861</v>
+        <v>0.000518509999999992</v>
       </c>
       <c r="C69">
-        <v>0.09668953153822155</v>
+        <v>0.02520213400000003</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1124,10 +1124,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>0.01096553802490235</v>
+        <v>0.0005407919999996125</v>
       </c>
       <c r="C70">
-        <v>0.09894493709911005</v>
+        <v>0.02669004500000056</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1135,10 +1135,10 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>0.01020595015901509</v>
+        <v>0.0005658879999997169</v>
       </c>
       <c r="C71">
-        <v>0.1013254779757877</v>
+        <v>0.02811326300000033</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1146,10 +1146,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>0.01043996436923159</v>
+        <v>0.000571744000000507</v>
       </c>
       <c r="C72">
-        <v>0.1096762470170564</v>
+        <v>0.02950621399999932</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1157,10 +1157,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>0.01111463332662778</v>
+        <v>0.0005673469999997848</v>
       </c>
       <c r="C73">
-        <v>0.1062167586112509</v>
+        <v>0.03120218499999965</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1168,10 +1168,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>0.01046814421812694</v>
+        <v>0.0006065559999997561</v>
       </c>
       <c r="C74">
-        <v>0.1167988022168478</v>
+        <v>0.03297836899999979</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1179,10 +1179,10 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>0.0118450774702915</v>
+        <v>0.000647989000000706</v>
       </c>
       <c r="C75">
-        <v>0.1219159048657085</v>
+        <v>0.03460451500000062</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1190,10 +1190,10 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>0.009535054365793874</v>
+        <v>0.0006603159999995967</v>
       </c>
       <c r="C76">
-        <v>0.1248545646667482</v>
+        <v>0.03639848800000038</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1201,10 +1201,10 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>0.01026684073514717</v>
+        <v>0.0007804219999995609</v>
       </c>
       <c r="C77">
-        <v>0.130451034945111</v>
+        <v>0.03846756200000172</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1212,10 +1212,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>0.01226869079301943</v>
+        <v>0.000835474000000147</v>
       </c>
       <c r="C78">
-        <v>0.1352745802897329</v>
+        <v>0.04131665899999917</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1223,10 +1223,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>0.01128623321138581</v>
+        <v>0.0008131749999998306</v>
       </c>
       <c r="C79">
-        <v>0.1363315039667591</v>
+        <v>0.04285392100000052</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1234,10 +1234,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>0.01021348704462467</v>
+        <v>0.0008229659999997807</v>
       </c>
       <c r="C80">
-        <v>0.1416871475136799</v>
+        <v>0.04487537500000286</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1245,10 +1245,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>0.01134180084603733</v>
+        <v>0.0008234820000018317</v>
       </c>
       <c r="C81">
-        <v>0.1465542144462712</v>
+        <v>0.04699671899999771</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1256,10 +1256,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>0.01053630980578337</v>
+        <v>0.0008646759999996334</v>
       </c>
       <c r="C82">
-        <v>0.1550690390846947</v>
+        <v>0.04932800400000161</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1267,10 +1267,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>0.009419340557522249</v>
+        <v>0.0008831099999994762</v>
       </c>
       <c r="C83">
-        <v>0.1514867835574681</v>
+        <v>0.05153819700000071</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1278,10 +1278,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>0.01036769910292193</v>
+        <v>0.0009008769999991273</v>
       </c>
       <c r="C84">
-        <v>0.161016531424089</v>
+        <v>0.05408135500000213</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1289,10 +1289,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>0.0109264578138079</v>
+        <v>0.0009396699999985003</v>
       </c>
       <c r="C85">
-        <v>0.166538851601737</v>
+        <v>0.05607855799999925</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1300,10 +1300,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>0.01027875133589203</v>
+        <v>0.0009631110000003673</v>
       </c>
       <c r="C86">
-        <v>0.1803332431643618</v>
+        <v>0.05878081699999939</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1311,10 +1311,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>0.0107563561406629</v>
+        <v>0.0009986839999990592</v>
       </c>
       <c r="C87">
-        <v>0.1781318138385643</v>
+        <v>0.06157535600000074</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1322,10 +1322,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>0.01146749343190875</v>
+        <v>0.001001328000002957</v>
       </c>
       <c r="C88">
-        <v>0.183866482121604</v>
+        <v>0.06413112100000035</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1333,10 +1333,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>0.01029417971347241</v>
+        <v>0.001011203000001331</v>
       </c>
       <c r="C89">
-        <v>0.1920641797654174</v>
+        <v>0.06732504400000067</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1344,10 +1344,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>0.01148599783579509</v>
+        <v>0.001032834000000378</v>
       </c>
       <c r="C90">
-        <v>0.1962118387222292</v>
+        <v>0.07022328899999905</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1355,10 +1355,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>0.01087381839752198</v>
+        <v>0.001031317000001763</v>
       </c>
       <c r="C91">
-        <v>0.1948498674060989</v>
+        <v>0.07335353299999951</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1366,10 +1366,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>0.01063654224077861</v>
+        <v>0.00105971299999851</v>
       </c>
       <c r="C92">
-        <v>0.2060894906520845</v>
+        <v>0.07662511400000312</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1377,10 +1377,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>0.01078339815139771</v>
+        <v>0.00104915700000447</v>
       </c>
       <c r="C93">
-        <v>0.20489272962917</v>
+        <v>0.08030460999999832</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1388,10 +1388,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>0.01121472498265709</v>
+        <v>0.001073065999996174</v>
       </c>
       <c r="C94">
-        <v>0.2020446474959212</v>
+        <v>0.08365005299999893</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1399,10 +1399,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>0.01035897334416708</v>
+        <v>0.001137433999995778</v>
       </c>
       <c r="C95">
-        <v>0.2163812706867856</v>
+        <v>0.08728860800000064</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1410,10 +1410,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>0.01133396625518799</v>
+        <v>0.00117036500000097</v>
       </c>
       <c r="C96">
-        <v>0.2210635542869569</v>
+        <v>0.09071218700000032</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1421,10 +1421,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>0.01134485845212584</v>
+        <v>0.001181272999999123</v>
       </c>
       <c r="C97">
-        <v>0.2379685657995721</v>
+        <v>0.0944915170000013</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1432,10 +1432,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>0.01011391060025085</v>
+        <v>0.001188291999997091</v>
       </c>
       <c r="C98">
-        <v>0.2493990103403729</v>
+        <v>0.09858238699999845</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1443,10 +1443,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>0.01100841971004712</v>
+        <v>0.001214115999998171</v>
       </c>
       <c r="C99">
-        <v>0.2487547893150182</v>
+        <v>0.1023566550000027</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1454,10 +1454,571 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>0.0114140428029574</v>
+        <v>0.001243874000003302</v>
       </c>
       <c r="C100">
-        <v>0.2547488634402937</v>
+        <v>0.106462161</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>101</v>
+      </c>
+      <c r="B101">
+        <v>0.001263830999998845</v>
+      </c>
+      <c r="C101">
+        <v>0.1109187199999991</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>102</v>
+      </c>
+      <c r="B102">
+        <v>0.001303401999998641</v>
+      </c>
+      <c r="C102">
+        <v>0.1155445590000016</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>103</v>
+      </c>
+      <c r="B103">
+        <v>0.001319802999998956</v>
+      </c>
+      <c r="C103">
+        <v>0.1200186799999994</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>104</v>
+      </c>
+      <c r="B104">
+        <v>0.001370217000002754</v>
+      </c>
+      <c r="C104">
+        <v>0.1247474449999982</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>105</v>
+      </c>
+      <c r="B105">
+        <v>0.00140662500000019</v>
+      </c>
+      <c r="C105">
+        <v>0.1292916029999941</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>106</v>
+      </c>
+      <c r="B106">
+        <v>0.001337073999993663</v>
+      </c>
+      <c r="C106">
+        <v>0.1342876229999956</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>107</v>
+      </c>
+      <c r="B107">
+        <v>0.001371156999998675</v>
+      </c>
+      <c r="C107">
+        <v>0.1396205310000073</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>108</v>
+      </c>
+      <c r="B108">
+        <v>0.001401905999995279</v>
+      </c>
+      <c r="C108">
+        <v>0.1465740559999949</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>109</v>
+      </c>
+      <c r="B109">
+        <v>0.001436483999999609</v>
+      </c>
+      <c r="C109">
+        <v>0.1507370419999995</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>110</v>
+      </c>
+      <c r="B110">
+        <v>0.001505788000000621</v>
+      </c>
+      <c r="C110">
+        <v>0.158375153000004</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>111</v>
+      </c>
+      <c r="B111">
+        <v>0.001505148999999619</v>
+      </c>
+      <c r="C111">
+        <v>0.1629515700000104</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>112</v>
+      </c>
+      <c r="B112">
+        <v>0.001501615999994783</v>
+      </c>
+      <c r="C112">
+        <v>0.1680887760000007</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>113</v>
+      </c>
+      <c r="B113">
+        <v>0.001523108000006914</v>
+      </c>
+      <c r="C113">
+        <v>0.1741788709999924</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>114</v>
+      </c>
+      <c r="B114">
+        <v>0.001553407000005791</v>
+      </c>
+      <c r="C114">
+        <v>0.1811325859999988</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>115</v>
+      </c>
+      <c r="B115">
+        <v>0.001588678999993363</v>
+      </c>
+      <c r="C115">
+        <v>0.186877556999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>116</v>
+      </c>
+      <c r="B116">
+        <v>0.001636627000000317</v>
+      </c>
+      <c r="C116">
+        <v>0.1932835799999987</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>117</v>
+      </c>
+      <c r="B117">
+        <v>0.001684754000000339</v>
+      </c>
+      <c r="C117">
+        <v>0.2001302629999986</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>118</v>
+      </c>
+      <c r="B118">
+        <v>0.001744460000001027</v>
+      </c>
+      <c r="C118">
+        <v>0.2086119010000061</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>119</v>
+      </c>
+      <c r="B119">
+        <v>0.001734091000006401</v>
+      </c>
+      <c r="C119">
+        <v>0.2144491629999959</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>120</v>
+      </c>
+      <c r="B120">
+        <v>0.001776318000005403</v>
+      </c>
+      <c r="C120">
+        <v>0.2227695669999957</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>121</v>
+      </c>
+      <c r="B121">
+        <v>0.001791961000001265</v>
+      </c>
+      <c r="C121">
+        <v>0.2292865259999985</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>122</v>
+      </c>
+      <c r="B122">
+        <v>0.001893777000004775</v>
+      </c>
+      <c r="C122">
+        <v>0.2371430739999926</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>123</v>
+      </c>
+      <c r="B123">
+        <v>0.001857747000003656</v>
+      </c>
+      <c r="C123">
+        <v>0.2453929150000181</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>124</v>
+      </c>
+      <c r="B124">
+        <v>0.001891324999999142</v>
+      </c>
+      <c r="C124">
+        <v>0.2537663890000021</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <v>0.001926372000011725</v>
+      </c>
+      <c r="C125">
+        <v>0.2622534979999955</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>126</v>
+      </c>
+      <c r="B126">
+        <v>0.001988076000000092</v>
+      </c>
+      <c r="C126">
+        <v>0.2733855330000097</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>127</v>
+      </c>
+      <c r="B127">
+        <v>0.001990215999994689</v>
+      </c>
+      <c r="C127">
+        <v>0.2808607289999941</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>128</v>
+      </c>
+      <c r="B128">
+        <v>0.002057215000008909</v>
+      </c>
+      <c r="C128">
+        <v>0.2884224599999993</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>129</v>
+      </c>
+      <c r="B129">
+        <v>0.002060709000011229</v>
+      </c>
+      <c r="C129">
+        <v>0.2978107690000024</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130">
+        <v>130</v>
+      </c>
+      <c r="B130">
+        <v>0.002111692999985735</v>
+      </c>
+      <c r="C130">
+        <v>0.3075211499999977</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131">
+        <v>131</v>
+      </c>
+      <c r="B131">
+        <v>0.002153855999993084</v>
+      </c>
+      <c r="C131">
+        <v>0.3176444409999977</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132">
+        <v>132</v>
+      </c>
+      <c r="B132">
+        <v>0.002195980999988478</v>
+      </c>
+      <c r="C132">
+        <v>0.3282885969999961</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133">
+        <v>133</v>
+      </c>
+      <c r="B133">
+        <v>0.002308369000006678</v>
+      </c>
+      <c r="C133">
+        <v>0.3379088120000028</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134">
+        <v>134</v>
+      </c>
+      <c r="B134">
+        <v>0.002416202999995676</v>
+      </c>
+      <c r="C134">
+        <v>0.3482311480000044</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135">
+        <v>135</v>
+      </c>
+      <c r="B135">
+        <v>0.002506750000004558</v>
+      </c>
+      <c r="C135">
+        <v>0.3590828210000086</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136">
+        <v>136</v>
+      </c>
+      <c r="B136">
+        <v>0.002482263000001694</v>
+      </c>
+      <c r="C136">
+        <v>0.3704991850000056</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137">
+        <v>137</v>
+      </c>
+      <c r="B137">
+        <v>0.002415238999985832</v>
+      </c>
+      <c r="C137">
+        <v>0.3842079460000014</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138">
+        <v>138</v>
+      </c>
+      <c r="B138">
+        <v>0.002494933000014043</v>
+      </c>
+      <c r="C138">
+        <v>0.3944046399999934</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139">
+        <v>139</v>
+      </c>
+      <c r="B139">
+        <v>0.002518485000007331</v>
+      </c>
+      <c r="C139">
+        <v>0.4056296689999908</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140">
+        <v>140</v>
+      </c>
+      <c r="B140">
+        <v>0.002554740999994465</v>
+      </c>
+      <c r="C140">
+        <v>0.4178511440000102</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141">
+        <v>141</v>
+      </c>
+      <c r="B141">
+        <v>0.002583607999999913</v>
+      </c>
+      <c r="C141">
+        <v>0.428852150000007</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142">
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <v>0.002646643999999014</v>
+      </c>
+      <c r="C142">
+        <v>0.4444933419999802</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143">
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <v>0.002595076000029621</v>
+      </c>
+      <c r="C143">
+        <v>0.454968739000019</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144">
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <v>0.002645586999974512</v>
+      </c>
+      <c r="C144">
+        <v>0.4680194819999952</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145">
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <v>0.002704588999995394</v>
+      </c>
+      <c r="C145">
+        <v>0.4813418720000027</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>0.002730249999981425</v>
+      </c>
+      <c r="C146">
+        <v>0.4961762610000142</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>0.002796298000002935</v>
+      </c>
+      <c r="C147">
+        <v>0.5098985779999794</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148">
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <v>0.002758950999968874</v>
+      </c>
+      <c r="C148">
+        <v>0.524762413999988</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <v>0.002812709000004361</v>
+      </c>
+      <c r="C149">
+        <v>0.5394079779999629</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150">
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <v>0.002861375000043154</v>
+      </c>
+      <c r="C150">
+        <v>0.556592282000006</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <v>0.002898855000003095</v>
+      </c>
+      <c r="C151">
+        <v>0.5698268370000141</v>
       </c>
     </row>
   </sheetData>
